--- a/classes/cleric/domains/BonusSpellsAmbitionDomain.xlsx
+++ b/classes/cleric/domains/BonusSpellsAmbitionDomain.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+  <si>
+    <t>-</t>
+  </si>
   <si>
     <t>Bane=Disguise Self</t>
   </si>
@@ -299,29 +302,76 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
